--- a/slic3roptions.xlsx
+++ b/slic3roptions.xlsx
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/slic3roptions.xlsx
+++ b/slic3roptions.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\thom\School\2019 S04 Spring\optimization_of_3d_printable_objects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="320">
-  <si>
-    <t xml:space="preserve">type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="322">
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve"> flag</t>
@@ -34,10 +42,10 @@
     <t xml:space="preserve"> example</t>
   </si>
   <si>
-    <t xml:space="preserve">units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">highlevel</t>
+    <t>units</t>
+  </si>
+  <si>
+    <t>highlevel</t>
   </si>
   <si>
     <t xml:space="preserve"> --help</t>
@@ -70,7 +78,7 @@
     <t xml:space="preserve"> File to output gcode </t>
   </si>
   <si>
-    <t xml:space="preserve">Non-slicing</t>
+    <t>Non-slicing</t>
   </si>
   <si>
     <t xml:space="preserve"> --repair</t>
@@ -103,10 +111,10 @@
     <t xml:space="preserve"> Number of threads to use</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUI</t>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>GUI</t>
   </si>
   <si>
     <t xml:space="preserve"> --gui</t>
@@ -133,7 +141,7 @@
     <t xml:space="preserve"> Automatically export current configuration to the specified file </t>
   </si>
   <si>
-    <t xml:space="preserve">Output</t>
+    <t>Output</t>
   </si>
   <si>
     <t xml:space="preserve"> --post-process</t>
@@ -172,28 +180,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Printer</t>
+    <t>Printer</t>
   </si>
   <si>
     <t xml:space="preserve"> --nozzle-diameter </t>
   </si>
   <si>
-    <t xml:space="preserve">Diameter of nozzle in mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
+    <t>Diameter of nozzle in mm</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
   <si>
     <t xml:space="preserve"> --print-center </t>
   </si>
   <si>
-    <t xml:space="preserve">Coordinates in mm of the point to center the print around</t>
+    <t>Coordinates in mm of the point to center the print around</t>
   </si>
   <si>
     <t xml:space="preserve"> --z-offset </t>
   </si>
   <si>
-    <t xml:space="preserve">Additional height in mm to add to vertical coordinates</t>
+    <t>Additional height in mm to add to vertical coordinates</t>
   </si>
   <si>
     <t xml:space="preserve"> --gcode-flavor </t>
@@ -202,7 +210,7 @@
     <t xml:space="preserve">The type of G-code to generate </t>
   </si>
   <si>
-    <t xml:space="preserve">(reprap/teacup/makerware/sailfish/mach3/machinekit/no-extrusion)</t>
+    <t>(reprap/teacup/makerware/sailfish/mach3/machinekit/no-extrusion)</t>
   </si>
   <si>
     <t xml:space="preserve"> --use-relative-e-distances</t>
@@ -211,7 +219,7 @@
     <t xml:space="preserve"> Enable this to get relative E values </t>
   </si>
   <si>
-    <t xml:space="preserve">(default: no)</t>
+    <t>(default: no)</t>
   </si>
   <si>
     <t xml:space="preserve"> --use-firmware-retraction</t>
@@ -229,7 +237,7 @@
     <t xml:space="preserve"> --gcode-arcs </t>
   </si>
   <si>
-    <t xml:space="preserve">Use G2/G3 commands for native arcs</t>
+    <t>Use G2/G3 commands for native arcs</t>
   </si>
   <si>
     <t xml:space="preserve"> not supported by all firmwares)</t>
@@ -238,7 +246,7 @@
     <t xml:space="preserve"> --gcode-comments </t>
   </si>
   <si>
-    <t xml:space="preserve">Make G-code verbose by adding comments</t>
+    <t>Make G-code verbose by adding comments</t>
   </si>
   <si>
     <t xml:space="preserve"> (default: no)</t>
@@ -247,10 +255,10 @@
     <t xml:space="preserve"> --vibration-limit </t>
   </si>
   <si>
-    <t xml:space="preserve">Limit the frequency of moves on X and Y axes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hz</t>
+    <t>Limit the frequency of moves on X and Y axes</t>
+  </si>
+  <si>
+    <t>Hz</t>
   </si>
   <si>
     <t xml:space="preserve"> --pressure-advance </t>
@@ -259,7 +267,7 @@
     <t xml:space="preserve">Adjust pressure using the experimental advance algorithm </t>
   </si>
   <si>
-    <t xml:space="preserve">Filament</t>
+    <t>Filament</t>
   </si>
   <si>
     <t xml:space="preserve"> --filament-diameter</t>
@@ -298,7 +306,7 @@
     <t xml:space="preserve"> Heated bed temperature for the first layer, in degree Celsius,</t>
   </si>
   <si>
-    <t xml:space="preserve">Speed</t>
+    <t>Speed</t>
   </si>
   <si>
     <t xml:space="preserve"> --travel-speed </t>
@@ -334,13 +342,13 @@
     <t xml:space="preserve"> --solid-infill-speed </t>
   </si>
   <si>
-    <t xml:space="preserve">Speed of print moves for solid surfaces in mm/s or % over infill speed</t>
+    <t>Speed of print moves for solid surfaces in mm/s or % over infill speed</t>
   </si>
   <si>
     <t xml:space="preserve"> --top-solid-infill-speed </t>
   </si>
   <si>
-    <t xml:space="preserve">Speed of print moves for top surfaces in mm/s or % over solid infill speed</t>
+    <t>Speed of print moves for top surfaces in mm/s or % over solid infill speed</t>
   </si>
   <si>
     <t xml:space="preserve"> --support-material-speed </t>
@@ -355,7 +363,7 @@
     <t xml:space="preserve">Speed of support material interface print moves over support material speed </t>
   </si>
   <si>
-    <t xml:space="preserve">% or mm/s</t>
+    <t>% or mm/s</t>
   </si>
   <si>
     <t xml:space="preserve"> --bridge-speed </t>
@@ -376,7 +384,7 @@
     <t xml:space="preserve">Speed of print moves for bottom layer, expressed either as an absolute value or as a percentage over normal speeds </t>
   </si>
   <si>
-    <t xml:space="preserve">Acceleration</t>
+    <t>Acceleration</t>
   </si>
   <si>
     <t xml:space="preserve"> --perimeter-acceleration</t>
@@ -385,7 +393,7 @@
     <t xml:space="preserve"> Overrides firmware's default acceleration for perimeters. </t>
   </si>
   <si>
-    <t xml:space="preserve">mm/s^2</t>
+    <t>mm/s^2</t>
   </si>
   <si>
     <t xml:space="preserve"> --infill-acceleration</t>
@@ -400,7 +408,7 @@
     <t xml:space="preserve"> Overrides firmware's default acceleration for bridges. </t>
   </si>
   <si>
-    <t xml:space="preserve">--first-layer-acceleration</t>
+    <t>--first-layer-acceleration</t>
   </si>
   <si>
     <t xml:space="preserve"> Overrides firmware's default acceleration for first layer. </t>
@@ -412,7 +420,7 @@
     <t xml:space="preserve"> Acceleration will be reset to this value after the specific settings above have been applied. </t>
   </si>
   <si>
-    <t xml:space="preserve">Accuracy</t>
+    <t>Accuracy</t>
   </si>
   <si>
     <t xml:space="preserve"> --layer-height</t>
@@ -439,7 +447,7 @@
     <t xml:space="preserve"> Force a solid layer every N layers (default: 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Print</t>
+    <t>Print</t>
   </si>
   <si>
     <t xml:space="preserve"> --perimeters</t>
@@ -493,7 +501,7 @@
     <t xml:space="preserve">Print </t>
   </si>
   <si>
-    <t xml:space="preserve">--start-gcode</t>
+    <t>--start-gcode</t>
   </si>
   <si>
     <t xml:space="preserve"> Load initial G-code from the supplied file. This will overwrite the default command (home all axes [G28]).</t>
@@ -565,7 +573,7 @@
     <t xml:space="preserve"> Make infill before perimeters (default: no) </t>
   </si>
   <si>
-    <t xml:space="preserve">Quality</t>
+    <t>Quality</t>
   </si>
   <si>
     <t xml:space="preserve"> --extra-perimeters</t>
@@ -592,7 +600,7 @@
     <t xml:space="preserve"> Experimental option to use bridge flow, speed and fan for overhangs (default: yes)</t>
   </si>
   <si>
-    <t xml:space="preserve">Support</t>
+    <t>Support</t>
   </si>
   <si>
     <t xml:space="preserve"> --support-material</t>
@@ -661,7 +669,7 @@
     <t xml:space="preserve"> Experimental option for preventing support material from being generated under bridged areas (default: yes)</t>
   </si>
   <si>
-    <t xml:space="preserve">Retraction</t>
+    <t>Retraction</t>
   </si>
   <si>
     <t xml:space="preserve"> --retract-length</t>
@@ -706,7 +714,7 @@
     <t xml:space="preserve"> Wipe the nozzle while doing a retraction (default: no)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooling</t>
+    <t>Cooling</t>
   </si>
   <si>
     <t xml:space="preserve"> --cooling</t>
@@ -763,7 +771,7 @@
     <t xml:space="preserve"> Keep fan always on at min fan speed, even for layers that don't need cooling</t>
   </si>
   <si>
-    <t xml:space="preserve">Skirt</t>
+    <t>Skirt</t>
   </si>
   <si>
     <t xml:space="preserve"> --skirts</t>
@@ -796,7 +804,7 @@
     <t xml:space="preserve"> Width of the brim that will get added to each object to help adhesion (mm, default: 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform</t>
+    <t>Transform</t>
   </si>
   <si>
     <t xml:space="preserve"> --scale</t>
@@ -835,7 +843,7 @@
     <t xml:space="preserve"> Grow/shrink objects by the configured absolute distance (mm, default: 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequential</t>
+    <t>Sequential</t>
   </si>
   <si>
     <t xml:space="preserve"> --complete-objects</t>
@@ -862,7 +870,7 @@
     <t xml:space="preserve"> i.e. vertical distance from extruder tip and carriage bottom (default: 20)</t>
   </si>
   <si>
-    <t xml:space="preserve">Miscellaneous</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t xml:space="preserve"> --notes</t>
@@ -877,7 +885,7 @@
     <t xml:space="preserve"> Minimum detail resolution (mm, set zero for full resolution, default: 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Flow</t>
+    <t>Flow</t>
   </si>
   <si>
     <t xml:space="preserve"> --extrusion-width</t>
@@ -937,7 +945,7 @@
     <t xml:space="preserve"> --bridge-flow-ratio Multiplier for extrusion when bridging (&gt; 0, default: 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-extruder</t>
+    <t>Multi-extruder</t>
   </si>
   <si>
     <t xml:space="preserve"> --extruder-offset</t>
@@ -998,37 +1006,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Additional amount of filament in mm to push after switching tool (default: 0)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1041,7 +1036,6 @@
       <sz val="6.4"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1054,7 +1048,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1062,57 +1056,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1171,1746 +1128,3205 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF4C4C4C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Types of slic3r</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> parameters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Miscellaneous</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Output</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GUI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Quality</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Acceleration</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>highlevel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Non-slicing</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Skirt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Filament</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Transform</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Retraction</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Cooling</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Flow</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Multi-extruder</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Printer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Support</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Speed</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Print</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-291C-497F-8B52-0991959E4124}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="623935072"/>
+        <c:axId val="623936736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="623935072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623936736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623936736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623935072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="130.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="80.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" customWidth="1"/>
+    <col min="3" max="3" width="130.42578125" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>0.5</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>100</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>130</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>60</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>80</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>60</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>100</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>150</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>175</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>182</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>185</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>184</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>184</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>203</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>205</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>207</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>208</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>207</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>207</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>216</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>218</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>220</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>222</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>225</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>227</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>229</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>231</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>233</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>222</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>242</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>241</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>241</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>246</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>248</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>241</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>250</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>253</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
         <v>252</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>255</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
         <v>252</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>257</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>252</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>259</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>252</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>261</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>263</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
         <v>265</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>266</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>267</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>265</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>269</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
         <v>265</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>272</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>274</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>275</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>274</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>279</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>280</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>281</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
         <v>279</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>283</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>279</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>279</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>286</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
         <v>279</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>288</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
         <v>279</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>290</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>292</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>279</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>294</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>279</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>296</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>299</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>300</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>299</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>299</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>304</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>299</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>306</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>299</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>308</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
         <v>299</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>311</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>312</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>299</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>313</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
         <v>299</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>299</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>316</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>318</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B21">
+    <sortState ref="A2:B21">
+      <sortCondition ref="B1:B21"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>